--- a/test/fixtures/files/Sara-Alert-Format-Invalid-Monitorees.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-Invalid-Monitorees.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F956C4D-17BE-6E4C-8AC2-362F28D7CF7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F163FA-C379-4341-9536-1147D7A4F3A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{FB22F82A-CCC1-4D6A-91C1-F71C3D0DC51F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Middle Name</t>
   </si>
@@ -316,6 +316,12 @@
   </si>
   <si>
     <t>Travel from Affected Country or Area?</t>
+  </si>
+  <si>
+    <t>Jurisdiction Path</t>
+  </si>
+  <si>
+    <t>Group Number</t>
   </si>
 </sst>
 </file>
@@ -740,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0A48AF-1FB5-45BC-B992-E199F2EDE988}">
-  <dimension ref="A1:CQ1"/>
+  <dimension ref="A1:CS1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="CE1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="CR1" sqref="CR1"/>
+      <selection activeCell="CS2" sqref="CS2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -834,7 +840,7 @@
     <col min="96" max="16384" width="11.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:97" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
@@ -1119,6 +1125,12 @@
       </c>
       <c r="CQ1" s="5" t="s">
         <v>82</v>
+      </c>
+      <c r="CR1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1128,6 +1140,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009856CE158C8F314EA74224A8C3009C8B" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="908209ddac53f32545b1caace708e1d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="23e9cf30-ef1f-414a-92de-e987813e3346" xmlns:ns3="f188c146-715c-4d6d-ba0d-f71ec86e1ad8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fc0c5e4c8153e97343b1f54df28f05c5" ns2:_="" ns3:_="">
     <xsd:import namespace="23e9cf30-ef1f-414a-92de-e987813e3346"/>
@@ -1324,12 +1342,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1340,6 +1352,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EB466D0-FDD2-42B9-89BA-6A1D062B643C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="23e9cf30-ef1f-414a-92de-e987813e3346"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f188c146-715c-4d6d-ba0d-f71ec86e1ad8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12F6E04A-24FC-4AB1-AEAA-A807A2429182}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1358,23 +1387,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EB466D0-FDD2-42B9-89BA-6A1D062B643C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="23e9cf30-ef1f-414a-92de-e987813e3346"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f188c146-715c-4d6d-ba0d-f71ec86e1ad8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{466812D3-9823-4964-8A86-52E723D24896}">
   <ds:schemaRefs>

--- a/test/fixtures/files/Sara-Alert-Format-Invalid-Monitorees.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-Invalid-Monitorees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F163FA-C379-4341-9536-1147D7A4F3A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE7C215-0184-7442-9ED6-C6D9922404C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{FB22F82A-CCC1-4D6A-91C1-F71C3D0DC51F}"/>
   </bookViews>
@@ -321,7 +321,7 @@
     <t>Jurisdiction Path</t>
   </si>
   <si>
-    <t>Group Number</t>
+    <t>Assigned User</t>
   </si>
 </sst>
 </file>
@@ -748,7 +748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0A48AF-1FB5-45BC-B992-E199F2EDE988}">
   <dimension ref="A1:CS1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CE1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="CD1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="CS2" sqref="CS2"/>
     </sheetView>
   </sheetViews>
@@ -1140,12 +1140,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009856CE158C8F314EA74224A8C3009C8B" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="908209ddac53f32545b1caace708e1d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="23e9cf30-ef1f-414a-92de-e987813e3346" xmlns:ns3="f188c146-715c-4d6d-ba0d-f71ec86e1ad8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fc0c5e4c8153e97343b1f54df28f05c5" ns2:_="" ns3:_="">
     <xsd:import namespace="23e9cf30-ef1f-414a-92de-e987813e3346"/>
@@ -1342,6 +1336,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1352,23 +1352,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EB466D0-FDD2-42B9-89BA-6A1D062B643C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="23e9cf30-ef1f-414a-92de-e987813e3346"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f188c146-715c-4d6d-ba0d-f71ec86e1ad8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12F6E04A-24FC-4AB1-AEAA-A807A2429182}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1387,6 +1370,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EB466D0-FDD2-42B9-89BA-6A1D062B643C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="23e9cf30-ef1f-414a-92de-e987813e3346"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f188c146-715c-4d6d-ba0d-f71ec86e1ad8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{466812D3-9823-4964-8A86-52E723D24896}">
   <ds:schemaRefs>

--- a/test/fixtures/files/Sara-Alert-Format-Invalid-Monitorees.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-Invalid-Monitorees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE7C215-0184-7442-9ED6-C6D9922404C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE9D578-D6A2-354B-8943-97836101861E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{FB22F82A-CCC1-4D6A-91C1-F71C3D0DC51F}"/>
   </bookViews>
@@ -318,10 +318,10 @@
     <t>Travel from Affected Country or Area?</t>
   </si>
   <si>
-    <t>Jurisdiction Path</t>
-  </si>
-  <si>
     <t>Assigned User</t>
+  </si>
+  <si>
+    <t>Full Assigned Jurisdiction Path</t>
   </si>
 </sst>
 </file>
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0A48AF-1FB5-45BC-B992-E199F2EDE988}">
   <dimension ref="A1:CS1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CD1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="CS2" sqref="CS2"/>
+    <sheetView tabSelected="1" topLeftCell="CE1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="CR2" sqref="CR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -837,7 +837,8 @@
     <col min="92" max="92" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="93" max="94" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="95" max="95" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="96" max="16384" width="11.83203125" style="1"/>
+    <col min="96" max="96" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="97" max="16384" width="11.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:97" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
@@ -1127,10 +1128,10 @@
         <v>82</v>
       </c>
       <c r="CR1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS1" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="CS1" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1140,6 +1141,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009856CE158C8F314EA74224A8C3009C8B" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="908209ddac53f32545b1caace708e1d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="23e9cf30-ef1f-414a-92de-e987813e3346" xmlns:ns3="f188c146-715c-4d6d-ba0d-f71ec86e1ad8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fc0c5e4c8153e97343b1f54df28f05c5" ns2:_="" ns3:_="">
     <xsd:import namespace="23e9cf30-ef1f-414a-92de-e987813e3346"/>
@@ -1336,12 +1343,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1352,6 +1353,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EB466D0-FDD2-42B9-89BA-6A1D062B643C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="23e9cf30-ef1f-414a-92de-e987813e3346"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f188c146-715c-4d6d-ba0d-f71ec86e1ad8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12F6E04A-24FC-4AB1-AEAA-A807A2429182}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1370,23 +1388,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EB466D0-FDD2-42B9-89BA-6A1D062B643C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="23e9cf30-ef1f-414a-92de-e987813e3346"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f188c146-715c-4d6d-ba0d-f71ec86e1ad8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{466812D3-9823-4964-8A86-52E723D24896}">
   <ds:schemaRefs>

--- a/test/fixtures/files/Sara-Alert-Format-Invalid-Monitorees.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-Invalid-Monitorees.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA/SaraAlert/test/fixtures/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aholmes/Developer/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE9D578-D6A2-354B-8943-97836101861E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B94321-11CF-AB49-933A-F42C0B0F1F31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{FB22F82A-CCC1-4D6A-91C1-F71C3D0DC51F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Middle Name</t>
   </si>
@@ -322,6 +322,12 @@
   </si>
   <si>
     <t>Full Assigned Jurisdiction Path</t>
+  </si>
+  <si>
+    <t>Gender Identity</t>
+  </si>
+  <si>
+    <t>Sexual Orientation</t>
   </si>
 </sst>
 </file>
@@ -746,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0A48AF-1FB5-45BC-B992-E199F2EDE988}">
-  <dimension ref="A1:CS1"/>
+  <dimension ref="A1:CU1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="CE1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="CR2" sqref="CR2"/>
+      <selection activeCell="CN9" sqref="CN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -841,7 +847,7 @@
     <col min="97" max="16384" width="11.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:97" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:99" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
@@ -1132,6 +1138,12 @@
       </c>
       <c r="CS1" s="7" t="s">
         <v>95</v>
+      </c>
+      <c r="CT1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1141,9 +1153,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1344,27 +1359,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EB466D0-FDD2-42B9-89BA-6A1D062B643C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{466812D3-9823-4964-8A86-52E723D24896}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="23e9cf30-ef1f-414a-92de-e987813e3346"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f188c146-715c-4d6d-ba0d-f71ec86e1ad8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1389,9 +1392,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{466812D3-9823-4964-8A86-52E723D24896}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EB466D0-FDD2-42B9-89BA-6A1D062B643C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="23e9cf30-ef1f-414a-92de-e987813e3346"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f188c146-715c-4d6d-ba0d-f71ec86e1ad8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/test/fixtures/files/Sara-Alert-Format-Invalid-Monitorees.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-Invalid-Monitorees.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aholmes/Developer/SaraAlert/test/fixtures/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashankland/git/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B94321-11CF-AB49-933A-F42C0B0F1F31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D135AAB1-3BC3-564A-99C2-FB5DEBE8696C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{FB22F82A-CCC1-4D6A-91C1-F71C3D0DC51F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Middle Name</t>
   </si>
@@ -328,6 +328,15 @@
   </si>
   <si>
     <t>Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Race Unknown</t>
+  </si>
+  <si>
+    <t>Race Other</t>
+  </si>
+  <si>
+    <t>Race Refused to Answer</t>
   </si>
 </sst>
 </file>
@@ -752,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0A48AF-1FB5-45BC-B992-E199F2EDE988}">
-  <dimension ref="A1:CU1"/>
+  <dimension ref="A1:CX1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CE1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="CN9" sqref="CN9"/>
+    <sheetView tabSelected="1" topLeftCell="CO1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="CX6" sqref="CX6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -847,7 +856,7 @@
     <col min="97" max="16384" width="11.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:102" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
@@ -1144,6 +1153,15 @@
       </c>
       <c r="CU1" s="7" t="s">
         <v>98</v>
+      </c>
+      <c r="CV1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1153,6 +1171,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1161,7 +1185,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009856CE158C8F314EA74224A8C3009C8B" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="908209ddac53f32545b1caace708e1d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="23e9cf30-ef1f-414a-92de-e987813e3346" xmlns:ns3="f188c146-715c-4d6d-ba0d-f71ec86e1ad8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fc0c5e4c8153e97343b1f54df28f05c5" ns2:_="" ns3:_="">
     <xsd:import namespace="23e9cf30-ef1f-414a-92de-e987813e3346"/>
@@ -1358,13 +1382,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EB466D0-FDD2-42B9-89BA-6A1D062B643C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="23e9cf30-ef1f-414a-92de-e987813e3346"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f188c146-715c-4d6d-ba0d-f71ec86e1ad8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{466812D3-9823-4964-8A86-52E723D24896}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1372,7 +1407,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12F6E04A-24FC-4AB1-AEAA-A807A2429182}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1389,21 +1424,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EB466D0-FDD2-42B9-89BA-6A1D062B643C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="23e9cf30-ef1f-414a-92de-e987813e3346"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f188c146-715c-4d6d-ba0d-f71ec86e1ad8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/test/fixtures/files/Sara-Alert-Format-Invalid-Monitorees.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-Invalid-Monitorees.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aholmes/Developer/SaraAlert/test/fixtures/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashankland/git/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B94321-11CF-AB49-933A-F42C0B0F1F31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14828BA3-465D-6849-8633-26334C97D444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{FB22F82A-CCC1-4D6A-91C1-F71C3D0DC51F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Middle Name</t>
   </si>
@@ -328,6 +328,15 @@
   </si>
   <si>
     <t>Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Race Unknown</t>
+  </si>
+  <si>
+    <t>Race Other</t>
+  </si>
+  <si>
+    <t>Race Refused to Answer</t>
   </si>
 </sst>
 </file>
@@ -752,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0A48AF-1FB5-45BC-B992-E199F2EDE988}">
-  <dimension ref="A1:CU1"/>
+  <dimension ref="A1:CX1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CE1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="CN9" sqref="CN9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -766,88 +775,90 @@
     <col min="4" max="4" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.5" style="1" customWidth="1"/>
-    <col min="32" max="32" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.5" style="1" customWidth="1"/>
     <col min="35" max="35" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.83203125" style="1" customWidth="1"/>
-    <col min="39" max="39" width="10.6640625" style="1" customWidth="1"/>
-    <col min="40" max="40" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9" style="1" customWidth="1"/>
-    <col min="50" max="50" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11.5" style="1" customWidth="1"/>
-    <col min="66" max="66" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.83203125" style="1" customWidth="1"/>
+    <col min="42" max="42" width="10.6640625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9" style="1" customWidth="1"/>
+    <col min="53" max="53" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="69" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="11.83203125" style="1"/>
-    <col min="75" max="75" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="11" style="1" customWidth="1"/>
-    <col min="77" max="77" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.5" style="1" customWidth="1"/>
+    <col min="69" max="69" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="72" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11.83203125" style="1"/>
+    <col min="78" max="78" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="11" style="1" customWidth="1"/>
+    <col min="80" max="80" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="17.1640625" style="1" customWidth="1"/>
-    <col min="88" max="88" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="89" max="90" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="11.83203125" style="1"/>
-    <col min="92" max="92" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="93" max="94" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="97" max="16384" width="11.83203125" style="1"/>
+    <col min="85" max="85" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="17.1640625" style="1" customWidth="1"/>
+    <col min="91" max="91" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="92" max="93" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="11.83203125" style="1"/>
+    <col min="95" max="95" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="97" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="16384" width="11.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:102" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
@@ -879,270 +890,279 @@
         <v>66</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BE1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BG1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BI1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="BP1" s="5" t="s">
+      <c r="BS1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="BQ1" s="5" t="s">
+      <c r="BT1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="BR1" s="5" t="s">
+      <c r="BU1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="BS1" s="5" t="s">
+      <c r="BV1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="BT1" s="5" t="s">
+      <c r="BW1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="BU1" s="5" t="s">
+      <c r="BX1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="BV1" s="6" t="s">
+      <c r="BY1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BW1" s="6" t="s">
+      <c r="BZ1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BX1" s="6" t="s">
+      <c r="CA1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="BY1" s="6" t="s">
+      <c r="CB1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="BZ1" s="6" t="s">
+      <c r="CC1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CA1" s="6" t="s">
+      <c r="CD1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="CB1" s="6" t="s">
+      <c r="CE1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="CC1" s="6" t="s">
+      <c r="CF1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="CD1" s="6" t="s">
+      <c r="CG1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="CE1" s="6" t="s">
+      <c r="CH1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="CF1" s="6" t="s">
+      <c r="CI1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="CG1" s="5" t="s">
+      <c r="CJ1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="CH1" s="8" t="s">
+      <c r="CK1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="CI1" s="8" t="s">
+      <c r="CL1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="CJ1" s="5" t="s">
+      <c r="CM1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="CK1" s="5" t="s">
+      <c r="CN1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="CL1" s="5" t="s">
+      <c r="CO1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="CM1" s="5" t="s">
+      <c r="CP1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="CN1" s="5" t="s">
+      <c r="CQ1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="CO1" s="5" t="s">
+      <c r="CR1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="CP1" s="5" t="s">
+      <c r="CS1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="CQ1" s="5" t="s">
+      <c r="CT1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="CR1" s="7" t="s">
+      <c r="CU1" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="CS1" s="7" t="s">
+      <c r="CV1" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="CT1" s="7" t="s">
+      <c r="CW1" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="7" t="s">
+      <c r="CX1" s="7" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1153,15 +1173,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009856CE158C8F314EA74224A8C3009C8B" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="908209ddac53f32545b1caace708e1d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="23e9cf30-ef1f-414a-92de-e987813e3346" xmlns:ns3="f188c146-715c-4d6d-ba0d-f71ec86e1ad8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fc0c5e4c8153e97343b1f54df28f05c5" ns2:_="" ns3:_="">
     <xsd:import namespace="23e9cf30-ef1f-414a-92de-e987813e3346"/>
@@ -1358,6 +1369,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1365,14 +1385,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{466812D3-9823-4964-8A86-52E723D24896}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12F6E04A-24FC-4AB1-AEAA-A807A2429182}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1387,6 +1399,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{466812D3-9823-4964-8A86-52E723D24896}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/test/fixtures/files/Sara-Alert-Format-Invalid-Monitorees.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-Invalid-Monitorees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashankland/git/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14828BA3-465D-6849-8633-26334C97D444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D135AAB1-3BC3-564A-99C2-FB5DEBE8696C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{FB22F82A-CCC1-4D6A-91C1-F71C3D0DC51F}"/>
   </bookViews>
@@ -763,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0A48AF-1FB5-45BC-B992-E199F2EDE988}">
   <dimension ref="A1:CX1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="CO1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="CX6" sqref="CX6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -775,87 +775,85 @@
     <col min="4" max="4" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.5" style="1" customWidth="1"/>
+    <col min="29" max="29" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.5" style="1" customWidth="1"/>
+    <col min="32" max="32" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.83203125" style="1" customWidth="1"/>
-    <col min="42" max="42" width="10.6640625" style="1" customWidth="1"/>
-    <col min="43" max="43" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9" style="1" customWidth="1"/>
-    <col min="53" max="53" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.83203125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="10.6640625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9" style="1" customWidth="1"/>
+    <col min="50" max="50" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="11.5" style="1" customWidth="1"/>
+    <col min="66" max="66" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="11.5" style="1" customWidth="1"/>
-    <col min="69" max="69" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="72" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="11.83203125" style="1"/>
-    <col min="78" max="78" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="11" style="1" customWidth="1"/>
-    <col min="80" max="80" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="69" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="11.83203125" style="1"/>
+    <col min="75" max="75" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="11" style="1" customWidth="1"/>
+    <col min="77" max="77" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="17.1640625" style="1" customWidth="1"/>
-    <col min="91" max="91" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="92" max="93" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="11.83203125" style="1"/>
-    <col min="95" max="95" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="96" max="97" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="100" max="16384" width="11.83203125" style="1"/>
+    <col min="85" max="85" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="17.1640625" style="1" customWidth="1"/>
+    <col min="88" max="88" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="89" max="90" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="11.83203125" style="1"/>
+    <col min="92" max="92" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="93" max="94" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="97" max="16384" width="11.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:102" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
@@ -890,280 +888,280 @@
         <v>66</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="BC1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="BF1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BN1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="BQ1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="BR1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="BS1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="BT1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="BU1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BV1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BW1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="BX1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="BY1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="BZ1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="CA1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="CB1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="CC1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="CD1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="CE1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="CF1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="CG1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="CH1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="CI1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="CJ1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="CK1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="CL1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="CM1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="CN1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="CO1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="CP1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="CQ1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="CR1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="CW1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="CX1" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="BC1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="BD1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="BE1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="BF1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="BG1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="BI1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="BJ1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="BK1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="BL1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="BN1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="BO1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="BP1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="BQ1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="BR1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="BS1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="BT1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="BU1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="BV1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BW1" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="BX1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="BY1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="BZ1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="CA1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="CB1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="CC1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="CD1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="CE1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="CF1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="CG1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="CH1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="CI1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="CJ1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="CK1" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="CL1" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="CM1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="CN1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="CO1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="CP1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="CQ1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="CR1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="CS1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="CT1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="CU1" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="CV1" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="CW1" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="CX1" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1173,6 +1171,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009856CE158C8F314EA74224A8C3009C8B" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="908209ddac53f32545b1caace708e1d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="23e9cf30-ef1f-414a-92de-e987813e3346" xmlns:ns3="f188c146-715c-4d6d-ba0d-f71ec86e1ad8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fc0c5e4c8153e97343b1f54df28f05c5" ns2:_="" ns3:_="">
     <xsd:import namespace="23e9cf30-ef1f-414a-92de-e987813e3346"/>
@@ -1369,22 +1382,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EB466D0-FDD2-42B9-89BA-6A1D062B643C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="23e9cf30-ef1f-414a-92de-e987813e3346"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f188c146-715c-4d6d-ba0d-f71ec86e1ad8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{466812D3-9823-4964-8A86-52E723D24896}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12F6E04A-24FC-4AB1-AEAA-A807A2429182}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1401,29 +1424,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{466812D3-9823-4964-8A86-52E723D24896}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EB466D0-FDD2-42B9-89BA-6A1D062B643C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="23e9cf30-ef1f-414a-92de-e987813e3346"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f188c146-715c-4d6d-ba0d-f71ec86e1ad8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/test/fixtures/files/Sara-Alert-Format-Invalid-Monitorees.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-Invalid-Monitorees.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashankland/git/SaraAlert/test/fixtures/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA-ALERT/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D135AAB1-3BC3-564A-99C2-FB5DEBE8696C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EE562D-0378-2B4C-8F78-438CB983D195}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{FB22F82A-CCC1-4D6A-91C1-F71C3D0DC51F}"/>
   </bookViews>
@@ -763,29 +763,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0A48AF-1FB5-45BC-B992-E199F2EDE988}">
   <dimension ref="A1:CX1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CO1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="CX6" sqref="CX6"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="CJ9" sqref="BA9:CJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -804,56 +805,60 @@
     <col min="41" max="41" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9" style="1" customWidth="1"/>
-    <col min="50" max="50" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="54" max="55" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="62" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11.5" style="1" customWidth="1"/>
-    <col min="66" max="66" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="66" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="68" max="69" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="11.83203125" style="1"/>
+    <col min="74" max="74" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="11" style="1" customWidth="1"/>
     <col min="77" max="77" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="17.1640625" style="1" customWidth="1"/>
+    <col min="86" max="86" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="89" max="90" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="11.83203125" style="1"/>
+    <col min="89" max="89" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="92" max="92" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="93" max="94" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="95" max="95" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="97" max="16384" width="11.83203125" style="1"/>
+    <col min="97" max="97" width="11.83203125" style="1"/>
+    <col min="98" max="98" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="103" max="16384" width="11.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:102" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
@@ -1155,10 +1160,10 @@
         <v>98</v>
       </c>
       <c r="CV1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="CW1" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="CW1" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="CX1" s="7" t="s">
         <v>101</v>
@@ -1171,12 +1176,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1185,7 +1184,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009856CE158C8F314EA74224A8C3009C8B" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="908209ddac53f32545b1caace708e1d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="23e9cf30-ef1f-414a-92de-e987813e3346" xmlns:ns3="f188c146-715c-4d6d-ba0d-f71ec86e1ad8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fc0c5e4c8153e97343b1f54df28f05c5" ns2:_="" ns3:_="">
     <xsd:import namespace="23e9cf30-ef1f-414a-92de-e987813e3346"/>
@@ -1382,24 +1381,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EB466D0-FDD2-42B9-89BA-6A1D062B643C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="23e9cf30-ef1f-414a-92de-e987813e3346"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f188c146-715c-4d6d-ba0d-f71ec86e1ad8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{466812D3-9823-4964-8A86-52E723D24896}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1407,7 +1395,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12F6E04A-24FC-4AB1-AEAA-A807A2429182}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1424,4 +1412,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EB466D0-FDD2-42B9-89BA-6A1D062B643C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="23e9cf30-ef1f-414a-92de-e987813e3346"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f188c146-715c-4d6d-ba0d-f71ec86e1ad8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/test/fixtures/files/Sara-Alert-Format-Invalid-Monitorees.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-Invalid-Monitorees.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA-ALERT/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EE562D-0378-2B4C-8F78-438CB983D195}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA6BDB1-A898-2D43-97A0-422D75C4473F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{FB22F82A-CCC1-4D6A-91C1-F71C3D0DC51F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Middle Name</t>
   </si>
@@ -337,13 +337,43 @@
   </si>
   <si>
     <t>Race Refused to Answer</t>
+  </si>
+  <si>
+    <t>Vaccine 1 Group Name</t>
+  </si>
+  <si>
+    <t>Vaccine 1 Product Name</t>
+  </si>
+  <si>
+    <t>Vaccine 1 Administration Date</t>
+  </si>
+  <si>
+    <t>Vaccine 1 Dose Number</t>
+  </si>
+  <si>
+    <t>Vaccine 1 Notes</t>
+  </si>
+  <si>
+    <t>Vaccine 2 Group Name</t>
+  </si>
+  <si>
+    <t>Vaccine 2 Product Name</t>
+  </si>
+  <si>
+    <t>Vaccine 2 Administration Date</t>
+  </si>
+  <si>
+    <t>Vaccine 2 Dose Number</t>
+  </si>
+  <si>
+    <t>Vaccine 2 Notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,50 +381,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -402,51 +398,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,412 +722,463 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0A48AF-1FB5-45BC-B992-E199F2EDE988}">
-  <dimension ref="A1:CX1"/>
+  <dimension ref="A1:DH1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="CJ9" sqref="BA9:CJ9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.5" style="1" customWidth="1"/>
-    <col min="32" max="32" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.83203125" style="1" customWidth="1"/>
-    <col min="39" max="39" width="10.6640625" style="1" customWidth="1"/>
-    <col min="40" max="40" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="28.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="62" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="66" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="69" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="11" style="1" customWidth="1"/>
-    <col min="77" max="77" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="28.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="32.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="35.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="28.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="28.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="28.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="33" style="1" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="95" max="95" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="97" max="97" width="11.83203125" style="1"/>
-    <col min="98" max="98" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="100" max="100" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="103" max="16384" width="11.83203125" style="1"/>
+    <col min="101" max="101" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="113" max="16384" width="11.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:112" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" t="s">
         <v>88</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" t="s">
         <v>89</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" t="s">
         <v>16</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" t="s">
         <v>17</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" t="s">
         <v>18</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" t="s">
         <v>19</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" t="s">
         <v>12</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" t="s">
         <v>20</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" t="s">
         <v>21</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" t="s">
         <v>22</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AJ1" t="s">
         <v>23</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AK1" t="s">
         <v>24</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AL1" t="s">
         <v>67</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AM1" t="s">
         <v>68</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AN1" t="s">
         <v>69</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AO1" t="s">
         <v>73</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AP1" t="s">
         <v>70</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AQ1" t="s">
         <v>71</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" t="s">
         <v>90</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AS1" t="s">
         <v>25</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AT1" t="s">
         <v>26</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AU1" t="s">
         <v>27</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AV1" t="s">
         <v>28</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AW1" t="s">
         <v>30</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AX1" t="s">
         <v>29</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AY1" t="s">
         <v>31</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="AZ1" t="s">
         <v>32</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BA1" t="s">
         <v>33</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BB1" t="s">
         <v>34</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BC1" t="s">
         <v>35</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BD1" t="s">
         <v>36</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BE1" t="s">
         <v>37</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BF1" t="s">
         <v>38</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BG1" t="s">
         <v>39</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BH1" t="s">
         <v>40</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BI1" t="s">
         <v>41</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BJ1" t="s">
         <v>42</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BK1" t="s">
         <v>43</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BL1" t="s">
         <v>44</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BM1" t="s">
         <v>45</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BN1" t="s">
         <v>46</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BO1" t="s">
         <v>91</v>
       </c>
-      <c r="BP1" s="5" t="s">
+      <c r="BP1" t="s">
         <v>47</v>
       </c>
-      <c r="BQ1" s="5" t="s">
+      <c r="BQ1" t="s">
         <v>48</v>
       </c>
-      <c r="BR1" s="5" t="s">
+      <c r="BR1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="BS1" s="5" t="s">
+      <c r="BS1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BT1" s="5" t="s">
+      <c r="BT1" t="s">
         <v>94</v>
       </c>
-      <c r="BU1" s="5" t="s">
+      <c r="BU1" t="s">
         <v>51</v>
       </c>
-      <c r="BV1" s="6" t="s">
+      <c r="BV1" t="s">
         <v>52</v>
       </c>
-      <c r="BW1" s="6" t="s">
+      <c r="BW1" t="s">
         <v>53</v>
       </c>
-      <c r="BX1" s="6" t="s">
+      <c r="BX1" t="s">
         <v>72</v>
       </c>
-      <c r="BY1" s="6" t="s">
+      <c r="BY1" t="s">
         <v>54</v>
       </c>
-      <c r="BZ1" s="6" t="s">
+      <c r="BZ1" t="s">
         <v>55</v>
       </c>
-      <c r="CA1" s="6" t="s">
+      <c r="CA1" t="s">
         <v>56</v>
       </c>
-      <c r="CB1" s="6" t="s">
+      <c r="CB1" t="s">
         <v>57</v>
       </c>
-      <c r="CC1" s="6" t="s">
+      <c r="CC1" t="s">
         <v>58</v>
       </c>
-      <c r="CD1" s="6" t="s">
+      <c r="CD1" t="s">
         <v>59</v>
       </c>
-      <c r="CE1" s="6" t="s">
+      <c r="CE1" t="s">
         <v>60</v>
       </c>
-      <c r="CF1" s="6" t="s">
+      <c r="CF1" t="s">
         <v>61</v>
       </c>
-      <c r="CG1" s="5" t="s">
+      <c r="CG1" t="s">
         <v>74</v>
       </c>
-      <c r="CH1" s="8" t="s">
+      <c r="CH1" t="s">
         <v>93</v>
       </c>
-      <c r="CI1" s="8" t="s">
+      <c r="CI1" t="s">
         <v>92</v>
       </c>
-      <c r="CJ1" s="5" t="s">
+      <c r="CJ1" t="s">
         <v>75</v>
       </c>
-      <c r="CK1" s="5" t="s">
+      <c r="CK1" t="s">
         <v>76</v>
       </c>
-      <c r="CL1" s="5" t="s">
+      <c r="CL1" t="s">
         <v>77</v>
       </c>
-      <c r="CM1" s="5" t="s">
+      <c r="CM1" t="s">
         <v>78</v>
       </c>
-      <c r="CN1" s="5" t="s">
+      <c r="CN1" t="s">
         <v>79</v>
       </c>
-      <c r="CO1" s="5" t="s">
+      <c r="CO1" t="s">
         <v>80</v>
       </c>
-      <c r="CP1" s="5" t="s">
+      <c r="CP1" t="s">
         <v>81</v>
       </c>
-      <c r="CQ1" s="5" t="s">
+      <c r="CQ1" t="s">
         <v>82</v>
       </c>
-      <c r="CR1" s="7" t="s">
+      <c r="CR1" t="s">
         <v>96</v>
       </c>
-      <c r="CS1" s="7" t="s">
+      <c r="CS1" t="s">
         <v>95</v>
       </c>
-      <c r="CT1" s="7" t="s">
+      <c r="CT1" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="7" t="s">
+      <c r="CU1" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="7" t="s">
+      <c r="CV1" t="s">
         <v>100</v>
       </c>
-      <c r="CW1" s="7" t="s">
+      <c r="CW1" t="s">
         <v>99</v>
       </c>
-      <c r="CX1" s="7" t="s">
+      <c r="CX1" t="s">
         <v>101</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1176,12 +1188,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1382,15 +1391,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{466812D3-9823-4964-8A86-52E723D24896}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EB466D0-FDD2-42B9-89BA-6A1D062B643C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="23e9cf30-ef1f-414a-92de-e987813e3346"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f188c146-715c-4d6d-ba0d-f71ec86e1ad8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1415,18 +1436,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EB466D0-FDD2-42B9-89BA-6A1D062B643C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{466812D3-9823-4964-8A86-52E723D24896}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="23e9cf30-ef1f-414a-92de-e987813e3346"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f188c146-715c-4d6d-ba0d-f71ec86e1ad8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/test/fixtures/files/Sara-Alert-Format-Invalid-Monitorees.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-Invalid-Monitorees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA-ALERT/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA6BDB1-A898-2D43-97A0-422D75C4473F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4BDB78-C5D6-1647-83A2-5EC38D68F0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{FB22F82A-CCC1-4D6A-91C1-F71C3D0DC51F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{FB22F82A-CCC1-4D6A-91C1-F71C3D0DC51F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Middle Name</t>
   </si>
@@ -367,6 +367,12 @@
   </si>
   <si>
     <t>Vaccine 2 Notes</t>
+  </si>
+  <si>
+    <t>Follow-Up Reason</t>
+  </si>
+  <si>
+    <t>Follow-Up Note</t>
   </si>
 </sst>
 </file>
@@ -722,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0A48AF-1FB5-45BC-B992-E199F2EDE988}">
-  <dimension ref="A1:DH1"/>
+  <dimension ref="A1:DJ1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
@@ -840,10 +846,12 @@
     <col min="110" max="110" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="113" max="16384" width="11.83203125" style="1"/>
+    <col min="113" max="113" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="115" max="16384" width="11.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:114" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -1179,6 +1187,12 @@
       </c>
       <c r="DH1" t="s">
         <v>111</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1188,9 +1202,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1391,27 +1408,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EB466D0-FDD2-42B9-89BA-6A1D062B643C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{466812D3-9823-4964-8A86-52E723D24896}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="23e9cf30-ef1f-414a-92de-e987813e3346"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f188c146-715c-4d6d-ba0d-f71ec86e1ad8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1436,9 +1441,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{466812D3-9823-4964-8A86-52E723D24896}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EB466D0-FDD2-42B9-89BA-6A1D062B643C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="23e9cf30-ef1f-414a-92de-e987813e3346"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f188c146-715c-4d6d-ba0d-f71ec86e1ad8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/test/fixtures/files/Sara-Alert-Format-Invalid-Monitorees.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-Invalid-Monitorees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA-ALERT/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4BDB78-C5D6-1647-83A2-5EC38D68F0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA6BDB1-A898-2D43-97A0-422D75C4473F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{FB22F82A-CCC1-4D6A-91C1-F71C3D0DC51F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{FB22F82A-CCC1-4D6A-91C1-F71C3D0DC51F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Middle Name</t>
   </si>
@@ -367,12 +367,6 @@
   </si>
   <si>
     <t>Vaccine 2 Notes</t>
-  </si>
-  <si>
-    <t>Follow-Up Reason</t>
-  </si>
-  <si>
-    <t>Follow-Up Note</t>
   </si>
 </sst>
 </file>
@@ -728,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0A48AF-1FB5-45BC-B992-E199F2EDE988}">
-  <dimension ref="A1:DJ1"/>
+  <dimension ref="A1:DH1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
@@ -846,12 +840,10 @@
     <col min="110" max="110" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="115" max="16384" width="11.83203125" style="1"/>
+    <col min="113" max="16384" width="11.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:112" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -1187,12 +1179,6 @@
       </c>
       <c r="DH1" t="s">
         <v>111</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1202,12 +1188,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1408,15 +1391,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{466812D3-9823-4964-8A86-52E723D24896}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EB466D0-FDD2-42B9-89BA-6A1D062B643C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="23e9cf30-ef1f-414a-92de-e987813e3346"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f188c146-715c-4d6d-ba0d-f71ec86e1ad8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1441,18 +1436,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EB466D0-FDD2-42B9-89BA-6A1D062B643C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{466812D3-9823-4964-8A86-52E723D24896}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="23e9cf30-ef1f-414a-92de-e987813e3346"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f188c146-715c-4d6d-ba0d-f71ec86e1ad8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>